--- a/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5A853-6064-4C72-81A5-06DD14E5335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F6669-6851-4C5A-813B-D42B935466EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>作成者</t>
   </si>
@@ -229,6 +229,10 @@
     <rPh sb="13" eb="15">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -394,7 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,10 +433,28 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,23 +475,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -824,7 +831,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="P5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -841,25 +848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,28 +876,28 @@
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -900,7 +907,9 @@
       <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="6"/>
@@ -928,20 +937,20 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
@@ -951,67 +960,85 @@
       <c r="O4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="13"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="26">
+        <v>45503</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="26">
+        <v>45503</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1020,12 +1047,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F6669-6851-4C5A-813B-D42B935466EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AECAD7-CC23-4FCE-B184-033E3DAEEC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>作成者</t>
   </si>
@@ -233,6 +233,80 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>selectByProductId(productId:Integer):ProductStock</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+productId=1</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>productIdが1（水性ボールペン(黒)）のデータが商品在庫テーブルから引き出せていること</t>
+    <rPh sb="12" eb="14">
+      <t>スイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ショウヒンザイコ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updateStock(count:Integer, productStockId=1):void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記を引数に当該メソッドを実行
+count=5,productStockId=1</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの商品在庫テーブルの、idが1のレコードの在庫数が5つ減っていること</t>
+    <rPh sb="7" eb="11">
+      <t>ショウヒンザイコ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヘ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -398,7 +472,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,41 +516,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -828,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:Q5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -848,25 +928,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,23 +961,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,20 +1017,20 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
@@ -960,10 +1040,10 @@
       <c r="O4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="10">
@@ -972,31 +1052,31 @@
       <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="15">
         <v>45503</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="10">
@@ -1005,40 +1085,94 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="15">
         <v>45503</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" ht="60" customHeight="1">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="60" customHeight="1">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
+  <mergeCells count="20">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1047,6 +1181,12 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-StockRepository.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AECAD7-CC23-4FCE-B184-033E3DAEEC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D3B0B4-C21B-4B67-AB8D-680BFECE76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DepartmentDAO" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>作成者</t>
   </si>
@@ -136,19 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースの部署テーブルに左記のデータのレコードが登録されていること</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ブショ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">トウロク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>repository/StockRepository.java</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -183,51 +170,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>insert(prodId:Integer, quantity:Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>update(prodId:Integer, quantity:Integer)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下記を引数に当該メソッドを実行
-prodId=null  prodstock=0</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データベースの在庫テーブルに左記のデータのレコードが登録されていること</t>
     <rPh sb="7" eb="9">
       <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>下記を引数に当該メソッドを実行
-prodId=26  prodstock=10</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -276,12 +225,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>updateStock(count:Integer, productStockId=1):void</t>
+    <t>insert(productStock)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>下記を引数に当該メソッドを実行
-count=5,productStockId=1</t>
+prodId=25  quantity=20</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
     </rPh>
@@ -297,15 +246,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>データベースの商品在庫テーブルの、idが1のレコードの在庫数が5つ減っていること</t>
-    <rPh sb="7" eb="11">
-      <t>ショウヒンザイコ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヘ</t>
+    <t>下記を引数に当該メソッドを実行
+prodId=1  prodstock=30</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースの部署テーブルに左記のデータのレコードが更新されていること</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ブショ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>古市</t>
+    <rPh sb="0" eb="2">
+      <t>フルイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -519,10 +492,34 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,30 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -908,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -928,56 +901,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
@@ -1017,20 +990,20 @@
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1040,139 +1013,118 @@
       <c r="O4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="55" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="15">
         <v>45503</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="15">
         <v>45503</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" ht="60" customHeight="1">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="N7" s="15">
+        <v>45509</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="17">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -1181,12 +1133,9 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
